--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp7-Bmpr2.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N2">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O2">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P2">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q2">
-        <v>123.4845320509778</v>
+        <v>157.8289556604972</v>
       </c>
       <c r="R2">
-        <v>1111.3607884588</v>
+        <v>1420.460600944475</v>
       </c>
       <c r="S2">
-        <v>0.2923840438301172</v>
+        <v>0.3446964233525793</v>
       </c>
       <c r="T2">
-        <v>0.2923840438301171</v>
+        <v>0.3446964233525793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N3">
         <v>128.041122</v>
       </c>
       <c r="O3">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P3">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q3">
-        <v>182.5926863583167</v>
+        <v>182.5926863583166</v>
       </c>
       <c r="R3">
         <v>1643.33417722485</v>
       </c>
       <c r="S3">
-        <v>0.4323390721455641</v>
+        <v>0.3987800949113419</v>
       </c>
       <c r="T3">
-        <v>0.4323390721455639</v>
+        <v>0.3987800949113419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N4">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O4">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P4">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q4">
-        <v>102.0363069550305</v>
+        <v>102.0363069550306</v>
       </c>
       <c r="R4">
-        <v>918.3267625952749</v>
+        <v>918.326762595275</v>
       </c>
       <c r="S4">
-        <v>0.241599393458338</v>
+        <v>0.222845991170098</v>
       </c>
       <c r="T4">
-        <v>0.2415993934583379</v>
+        <v>0.222845991170098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N5">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O5">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P5">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q5">
-        <v>4.303583040435556</v>
+        <v>5.500527115329445</v>
       </c>
       <c r="R5">
-        <v>38.73224736392</v>
+        <v>49.504744037965</v>
       </c>
       <c r="S5">
-        <v>0.01018993222407644</v>
+        <v>0.01201308096650157</v>
       </c>
       <c r="T5">
-        <v>0.01018993222407644</v>
+        <v>0.01201308096650157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N6">
         <v>128.041122</v>
       </c>
       <c r="O6">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P6">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q6">
         <v>6.363572629443333</v>
       </c>
       <c r="R6">
-        <v>57.27215366499</v>
+        <v>57.27215366498999</v>
       </c>
       <c r="S6">
-        <v>0.01506753167947533</v>
+        <v>0.0138979613464077</v>
       </c>
       <c r="T6">
-        <v>0.01506753167947532</v>
+        <v>0.0138979613464077</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N7">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O7">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P7">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q7">
         <v>3.556086846076111</v>
       </c>
       <c r="R7">
-        <v>32.00478161468499</v>
+        <v>32.004781614685</v>
       </c>
       <c r="S7">
-        <v>0.008420026662429156</v>
+        <v>0.00776644825307164</v>
       </c>
       <c r="T7">
-        <v>0.008420026662429152</v>
+        <v>0.00776644825307164</v>
       </c>
     </row>
   </sheetData>
